--- a/data/financial_statements/sofp/HAS.xlsx
+++ b/data/financial_statements/sofp/HAS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>552000000</v>
+        <v>551600000</v>
       </c>
       <c r="C2">
-        <v>628000000</v>
+        <v>628200000</v>
       </c>
       <c r="D2">
-        <v>1058000000</v>
+        <v>1057900000</v>
       </c>
       <c r="E2">
-        <v>1019000000</v>
+        <v>1019200000</v>
       </c>
       <c r="F2">
-        <v>1181000000</v>
+        <v>1181200000</v>
       </c>
       <c r="G2">
         <v>1228200000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1550000000</v>
+        <v>1188800000</v>
       </c>
       <c r="C3">
-        <v>1290000000</v>
+        <v>870500000</v>
       </c>
       <c r="D3">
-        <v>1232000000</v>
+        <v>931700000</v>
       </c>
       <c r="E3">
-        <v>1787000000</v>
+        <v>1500400000</v>
       </c>
       <c r="F3">
-        <v>1740000000</v>
+        <v>1476600000</v>
       </c>
       <c r="G3">
         <v>865900000</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>845000000</v>
+        <v>844500000</v>
       </c>
       <c r="C4">
-        <v>868000000</v>
+        <v>867500000</v>
       </c>
       <c r="D4">
-        <v>644000000</v>
+        <v>644300000</v>
       </c>
       <c r="E4">
-        <v>552000000</v>
+        <v>552100000</v>
       </c>
       <c r="F4">
-        <v>544000000</v>
+        <v>544100000</v>
       </c>
       <c r="G4">
         <v>499600000</v>
@@ -977,8 +1088,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>314000000</v>
@@ -1018,23 +1129,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3261000000</v>
+        <v>3260500000</v>
       </c>
       <c r="C6">
-        <v>3085000000</v>
+        <v>3085400000</v>
       </c>
       <c r="D6">
-        <v>3255000000</v>
+        <v>3255300000</v>
       </c>
       <c r="E6">
-        <v>3728000000</v>
+        <v>3728100000</v>
       </c>
       <c r="F6">
-        <v>3730000000</v>
+        <v>3730400000</v>
       </c>
       <c r="G6">
         <v>3616400000</v>
@@ -1140,23 +1251,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>412000000</v>
+        <v>411800000</v>
       </c>
       <c r="C7">
-        <v>410000000</v>
+        <v>409900000</v>
       </c>
       <c r="D7">
-        <v>423000000</v>
+        <v>422600000</v>
       </c>
       <c r="E7">
-        <v>421000000</v>
+        <v>421100000</v>
       </c>
       <c r="F7">
-        <v>442000000</v>
+        <v>441900000</v>
       </c>
       <c r="G7">
         <v>466200000</v>
@@ -1262,8 +1373,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2000000</v>
@@ -1300,23 +1411,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>4550000000</v>
+        <v>4549500000</v>
       </c>
       <c r="C9">
-        <v>4640000000</v>
+        <v>4640100000</v>
       </c>
       <c r="D9">
-        <v>4556000000</v>
+        <v>4555900000</v>
       </c>
       <c r="E9">
-        <v>4592000000</v>
+        <v>4591600000</v>
       </c>
       <c r="F9">
-        <v>4630000000</v>
+        <v>4629700000</v>
       </c>
       <c r="G9">
         <v>4669100000</v>
@@ -1422,23 +1533,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1245000000</v>
+        <v>1404300000</v>
       </c>
       <c r="C10">
-        <v>1219000000</v>
+        <v>1367600000</v>
       </c>
       <c r="D10">
-        <v>1190000000</v>
+        <v>1284900000</v>
       </c>
       <c r="E10">
-        <v>1061000000</v>
+        <v>1297000000</v>
       </c>
       <c r="F10">
-        <v>1318000000</v>
+        <v>1428400000</v>
       </c>
       <c r="G10">
         <v>1350500000</v>
@@ -1544,8 +1655,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>6365600000</v>
@@ -1666,23 +1777,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>9626000000</v>
+        <v>9626100000</v>
       </c>
       <c r="C12">
         <v>9503000000</v>
       </c>
       <c r="D12">
-        <v>9519000000</v>
+        <v>9518700000</v>
       </c>
       <c r="E12">
-        <v>10038000000</v>
+        <v>10037800000</v>
       </c>
       <c r="F12">
-        <v>10230000000</v>
+        <v>10230400000</v>
       </c>
       <c r="G12">
         <v>10102200000</v>
@@ -1788,8 +1899,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>122300000</v>
@@ -1910,23 +2021,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>560000000</v>
+        <v>559500000</v>
       </c>
       <c r="C14">
-        <v>544000000</v>
+        <v>543800000</v>
       </c>
       <c r="D14">
-        <v>412000000</v>
+        <v>411700000</v>
       </c>
       <c r="E14">
-        <v>580000000</v>
+        <v>580200000</v>
       </c>
       <c r="F14">
-        <v>598000000</v>
+        <v>598200000</v>
       </c>
       <c r="G14">
         <v>382400000</v>
@@ -2032,8 +2143,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1537500000</v>
@@ -2154,23 +2265,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>285000000</v>
+        <v>122600000</v>
       </c>
       <c r="C16">
-        <v>279000000</v>
+        <v>137000000</v>
       </c>
       <c r="D16">
-        <v>305000000</v>
+        <v>155800000</v>
       </c>
       <c r="E16">
-        <v>245000000</v>
+        <v>200100000</v>
       </c>
       <c r="F16">
-        <v>232000000</v>
+        <v>187600000</v>
       </c>
       <c r="G16">
         <v>189600000</v>
@@ -2219,8 +2330,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1454000000</v>
@@ -2260,23 +2371,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2357000000</v>
+        <v>2356900000</v>
       </c>
       <c r="C18">
-        <v>2158000000</v>
+        <v>2158200000</v>
       </c>
       <c r="D18">
         <v>2043000000</v>
       </c>
       <c r="E18">
-        <v>2456000000</v>
+        <v>2455900000</v>
       </c>
       <c r="F18">
-        <v>2450000000</v>
+        <v>2450400000</v>
       </c>
       <c r="G18">
         <v>2045600000</v>
@@ -2382,23 +2493,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>3819000000</v>
+        <v>3725100000</v>
       </c>
       <c r="C19">
-        <v>3845000000</v>
+        <v>3739000000</v>
       </c>
       <c r="D19">
-        <v>3866000000</v>
+        <v>3737900000</v>
       </c>
       <c r="E19">
-        <v>3957000000</v>
+        <v>3824200000</v>
       </c>
       <c r="F19">
-        <v>4117000000</v>
+        <v>3977400000</v>
       </c>
       <c r="G19">
         <v>4388700000</v>
@@ -2504,8 +2615,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E20">
         <v>16000000</v>
@@ -2530,8 +2641,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2622,23 +2733,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>452000000</v>
+        <v>545100000</v>
       </c>
       <c r="C22">
-        <v>464000000</v>
+        <v>570000000</v>
       </c>
       <c r="D22">
-        <v>506000000</v>
+        <v>633600000</v>
       </c>
       <c r="E22">
-        <v>391000000</v>
+        <v>670700000</v>
       </c>
       <c r="F22">
-        <v>584000000</v>
+        <v>722500000</v>
       </c>
       <c r="G22">
         <v>753000000</v>
@@ -2744,8 +2855,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>4270200000</v>
@@ -2866,23 +2977,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>6627000000</v>
+        <v>6627100000</v>
       </c>
       <c r="C24">
-        <v>6467000000</v>
+        <v>6490200000</v>
       </c>
       <c r="D24">
-        <v>6415000000</v>
+        <v>6438000000</v>
       </c>
       <c r="E24">
-        <v>6951000000</v>
+        <v>6974700000</v>
       </c>
       <c r="F24">
-        <v>7150000000</v>
+        <v>7173200000</v>
       </c>
       <c r="G24">
         <v>7211800000</v>
@@ -2988,8 +3099,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2530100000</v>
@@ -3110,23 +3221,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>110000000</v>
+        <v>110100000</v>
       </c>
       <c r="C26">
-        <v>110000000</v>
+        <v>110100000</v>
       </c>
       <c r="D26">
-        <v>110000000</v>
+        <v>110100000</v>
       </c>
       <c r="E26">
-        <v>110000000</v>
+        <v>110100000</v>
       </c>
       <c r="F26">
-        <v>110000000</v>
+        <v>110100000</v>
       </c>
       <c r="G26">
         <v>110100000</v>
@@ -3232,23 +3343,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>4298000000</v>
+        <v>4297800000</v>
       </c>
       <c r="C27">
-        <v>4266000000</v>
+        <v>4265900000</v>
       </c>
       <c r="D27">
-        <v>4221000000</v>
+        <v>4220900000</v>
       </c>
       <c r="E27">
-        <v>4258000000</v>
+        <v>4257800000</v>
       </c>
       <c r="F27">
-        <v>4270000000</v>
+        <v>4269600000</v>
       </c>
       <c r="G27">
         <v>4110300000</v>
@@ -3354,8 +3465,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>3637100000</v>
@@ -3476,23 +3587,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2976000000</v>
+        <v>2999000000</v>
       </c>
       <c r="C29">
-        <v>2984000000</v>
+        <v>3012800000</v>
       </c>
       <c r="D29">
-        <v>3046000000</v>
+        <v>3080700000</v>
       </c>
       <c r="E29">
-        <v>3026000000</v>
+        <v>3063100000</v>
       </c>
       <c r="F29">
-        <v>3019000000</v>
+        <v>3057200000</v>
       </c>
       <c r="G29">
         <v>2890399000</v>
@@ -3598,23 +3709,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>2976000000</v>
+        <v>2999000000</v>
       </c>
       <c r="C30">
-        <v>2984000000</v>
+        <v>3012800000</v>
       </c>
       <c r="D30">
-        <v>3046000000</v>
+        <v>3080700000</v>
       </c>
       <c r="E30">
-        <v>3026000000</v>
+        <v>3063100000</v>
       </c>
       <c r="F30">
-        <v>3019000000</v>
+        <v>3057200000</v>
       </c>
       <c r="G30">
         <v>2890400000</v>
@@ -3720,8 +3831,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>9626100000</v>
@@ -3842,8 +3953,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>138108000</v>
@@ -3964,8 +4075,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-1550500000</v>
@@ -4086,23 +4197,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>3552000000</v>
+        <v>3296100000</v>
       </c>
       <c r="C34">
-        <v>3496000000</v>
+        <v>3247800000</v>
       </c>
       <c r="D34">
-        <v>3113000000</v>
+        <v>2835800000</v>
       </c>
       <c r="E34">
-        <v>3183000000</v>
+        <v>3005100000</v>
       </c>
       <c r="F34">
-        <v>3168000000</v>
+        <v>2983800000</v>
       </c>
       <c r="G34">
         <v>3350100000</v>
@@ -4208,23 +4319,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>4104000000</v>
+        <v>3847700000</v>
       </c>
       <c r="C35">
-        <v>4124000000</v>
+        <v>3876000000</v>
       </c>
       <c r="D35">
-        <v>4171000000</v>
+        <v>3893700000</v>
       </c>
       <c r="E35">
-        <v>4202000000</v>
+        <v>4024300000</v>
       </c>
       <c r="F35">
-        <v>4349000000</v>
+        <v>4165000000</v>
       </c>
       <c r="G35">
         <v>4578300000</v>
